--- a/tests/resources/sheet_context_test.xlsx
+++ b/tests/resources/sheet_context_test.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Tests" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -516,4 +517,59 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1">
+        <f>Sheet1!C1</f>
+        <v/>
+      </c>
+      <c r="B1">
+        <f>Sheet1!C2</f>
+        <v/>
+      </c>
+      <c r="C1">
+        <f>Sheet1!D1</f>
+        <v/>
+      </c>
+      <c r="D1">
+        <f>Sheet1!A1</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <f>Sheet2!C1</f>
+        <v/>
+      </c>
+      <c r="B2">
+        <f>Sheet2!C2</f>
+        <v/>
+      </c>
+      <c r="C2">
+        <f>Sheet2!D1</f>
+        <v/>
+      </c>
+      <c r="D2">
+        <f>Sheet2!A1</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>